--- a/MLForCatheterDetection/!Calculations/Thresholding estimation.xlsx
+++ b/MLForCatheterDetection/!Calculations/Thresholding estimation.xlsx
@@ -22,10 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="15">
-  <si>
-    <t>Igor</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
   <si>
     <t>Otsu</t>
   </si>
@@ -67,6 +64,21 @@
   </si>
   <si>
     <t>Total (Range 59:105)</t>
+  </si>
+  <si>
+    <t>Contrast improving thresholding</t>
+  </si>
+  <si>
+    <t>Improved Otsu's thresholding</t>
+  </si>
+  <si>
+    <t>Otsu's thresholding</t>
+  </si>
+  <si>
+    <t>Adaptive thresholding</t>
+  </si>
+  <si>
+    <t>Otsu's histogram thresholding</t>
   </si>
 </sst>
 </file>
@@ -176,7 +188,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -216,6 +228,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -259,7 +274,7 @@
           <c:x val="6.2045464655901064E-2"/>
           <c:y val="7.1068902646711146E-2"/>
           <c:w val="0.93161261621958291"/>
-          <c:h val="0.66201203891429738"/>
+          <c:h val="0.56620365568076458"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -366,19 +381,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>Otsu</c:v>
+                  <c:v>Contrast improving thresholding</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Igor</c:v>
+                  <c:v>Contrast improving thresholding</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Slava</c:v>
+                  <c:v>Improved Otsu's thresholding</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Adaptive</c:v>
+                  <c:v>Adaptive thresholding</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Otsu Histogram</c:v>
+                  <c:v>Otsu's histogram thresholding</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -625,7 +640,7 @@
           <c:x val="6.2045464655901064E-2"/>
           <c:y val="7.1068902646711146E-2"/>
           <c:w val="0.93161261621958291"/>
-          <c:h val="0.66201203891429738"/>
+          <c:h val="0.57418768761689221"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -732,19 +747,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>Otsu</c:v>
+                  <c:v>Contrast improving thresholding</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Igor</c:v>
+                  <c:v>Contrast improving thresholding</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Slava</c:v>
+                  <c:v>Improved Otsu's thresholding</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Adaptive</c:v>
+                  <c:v>Adaptive thresholding</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Otsu Histogram</c:v>
+                  <c:v>Otsu's histogram thresholding</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -991,7 +1006,7 @@
           <c:x val="6.2045464655901064E-2"/>
           <c:y val="7.1068902646711146E-2"/>
           <c:w val="0.93161261621958291"/>
-          <c:h val="0.66201203891429738"/>
+          <c:h val="0.58217171955302005"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1098,19 +1113,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>Otsu</c:v>
+                  <c:v>Contrast improving thresholding</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Igor</c:v>
+                  <c:v>Contrast improving thresholding</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Slava</c:v>
+                  <c:v>Improved Otsu's thresholding</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Adaptive</c:v>
+                  <c:v>Adaptive thresholding</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Otsu Histogram</c:v>
+                  <c:v>Otsu's histogram thresholding</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9236,7 +9251,7 @@
   <dimension ref="B2:R398"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+      <selection activeCell="B3" sqref="B3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9249,14 +9264,14 @@
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="H2" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
@@ -9264,39 +9279,44 @@
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>9</v>
+    <row r="3" spans="2:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="B3" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="14" t="str">
+        <f>C3</f>
+        <v>Contrast improving thresholding</v>
+      </c>
+      <c r="J3" s="14" t="str">
+        <f>C3</f>
+        <v>Contrast improving thresholding</v>
+      </c>
+      <c r="K3" s="14" t="str">
+        <f>D3</f>
+        <v>Improved Otsu's thresholding</v>
+      </c>
+      <c r="L3" s="14" t="str">
+        <f>E3</f>
+        <v>Adaptive thresholding</v>
+      </c>
+      <c r="M3" s="14" t="str">
+        <f>F3</f>
+        <v>Otsu's histogram thresholding</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
@@ -9316,7 +9336,7 @@
         <v>0.83221476510067105</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I4" s="3">
         <f>AVERAGE(B4:B357)</f>
@@ -9356,7 +9376,7 @@
         <v>0.77697841726618699</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I5" s="3">
         <f>_xlfn.STDEV.S(B4:B357)</f>
@@ -9396,7 +9416,7 @@
         <v>0.77500000000000002</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I6" s="2">
         <f>COUNT(B4:B357)</f>
@@ -15212,8 +15232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:T398"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="L54" sqref="L54"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15226,7 +15246,7 @@
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -15234,7 +15254,7 @@
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="I2" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
@@ -15245,43 +15265,43 @@
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="F3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="7" t="s">
+      <c r="M3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="O3" s="7" t="s">
         <v>8</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
@@ -15304,7 +15324,7 @@
         <v>0.83221476510067105</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J4" s="3">
         <f>AVERAGE(B4:B304)</f>
@@ -15351,7 +15371,7 @@
         <v>0.77697841726618699</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J5" s="3">
         <f>_xlfn.STDEV.S(B4:B304)</f>
@@ -15398,7 +15418,7 @@
         <v>0.77500000000000002</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J6" s="2">
         <f>COUNT(B4:B304)</f>
@@ -21731,7 +21751,7 @@
   <dimension ref="B2:Y358"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T4" sqref="T4:T5"/>
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21744,7 +21764,7 @@
   <sheetData>
     <row r="2" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -21757,7 +21777,7 @@
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
       <c r="N2" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O2" s="12"/>
       <c r="P2" s="12"/>
@@ -21806,7 +21826,7 @@
         <v>0.15</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O3" s="6">
         <v>0.05</v>
@@ -21877,7 +21897,7 @@
         <v>0.81879194630872498</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O4" s="4">
         <f>AVERAGE(B4:B358)</f>
@@ -21959,7 +21979,7 @@
         <v>0.80291970802919699</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O5" s="4">
         <f>_xlfn.STDEV.S(B4:B358)</f>
@@ -22041,7 +22061,7 @@
         <v>0.844444444444444</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O6" s="2">
         <f>COUNT(B4:B358)</f>
